--- a/FileInput/OHDataEngine.xlsx
+++ b/FileInput/OHDataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -120,22 +120,46 @@
     <t>para6</t>
   </si>
   <si>
-    <t>Jagruti</t>
-  </si>
-  <si>
-    <t>Jigi</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
-    <t>Jvaghela@12</t>
-  </si>
-  <si>
     <t>Step 3</t>
   </si>
   <si>
     <t>Step 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1 </t>
+  </si>
+  <si>
+    <t>click Pim button</t>
+  </si>
+  <si>
+    <t>Fill all the fields in add employee page</t>
+  </si>
+  <si>
+    <t>Add Employee</t>
+  </si>
+  <si>
+    <t>jagruti</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>vaghela</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>Jagu#123</t>
+  </si>
+  <si>
+    <t>Jagruti vivek vaghela</t>
+  </si>
+  <si>
+    <t>jagruti3012</t>
   </si>
 </sst>
 </file>
@@ -521,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -577,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -589,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -781,22 +805,22 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -804,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -828,6 +852,134 @@
         <v>25</v>
       </c>
       <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -835,7 +987,7 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
